--- a/Tepebasi_Missing_Original.xlsx
+++ b/Tepebasi_Missing_Original.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idil/Downloads/drive-download-20251004T092037Z-1-001/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idilerzurum/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B53882E-2B09-0443-A892-8415AFAC3E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22BF366-391D-1D48-B445-F5248C1E03A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12680" yWindow="5160" windowWidth="34560" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$8802</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PM10 ( µg/m3 )</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Date</t>
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -93,7 +93,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,18 +398,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8802"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -9051,129 +9052,81 @@
       <c r="A1081" s="2">
         <v>45336.958981481483</v>
       </c>
-      <c r="B1081" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" s="2">
         <v>45337.000648148147</v>
       </c>
-      <c r="B1082" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" s="2">
         <v>45337.042314814818</v>
       </c>
-      <c r="B1083" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" s="2">
         <v>45337.083981481483</v>
       </c>
-      <c r="B1084" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" s="2">
         <v>45337.125648148147</v>
       </c>
-      <c r="B1085" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" s="2">
         <v>45337.167314814818</v>
       </c>
-      <c r="B1086" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" s="2">
         <v>45337.208981481483</v>
       </c>
-      <c r="B1087" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" s="2">
         <v>45337.250648148147</v>
       </c>
-      <c r="B1088" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" s="2">
         <v>45337.292314814818</v>
       </c>
-      <c r="B1089" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" s="2">
         <v>45337.333981481483</v>
       </c>
-      <c r="B1090" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1091" s="2">
         <v>45337.375648148147</v>
       </c>
-      <c r="B1091" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" s="2">
         <v>45337.417314814818</v>
       </c>
-      <c r="B1092" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1093" s="2">
         <v>45337.458981481483</v>
       </c>
-      <c r="B1093" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" s="2">
         <v>45337.500648148147</v>
       </c>
-      <c r="B1094" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" s="2">
         <v>45337.542314814818</v>
       </c>
-      <c r="B1095" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" s="2">
         <v>45337.583981481483</v>
       </c>
-      <c r="B1096" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" s="2">
@@ -27755,57 +27708,36 @@
       <c r="A3419" s="2">
         <v>45434.375648148147</v>
       </c>
-      <c r="B3419" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3420" s="2">
         <v>45434.417314814818</v>
       </c>
-      <c r="B3420" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3421" s="2">
         <v>45434.458981481483</v>
       </c>
-      <c r="B3421" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3422" s="2">
         <v>45434.500648148147</v>
       </c>
-      <c r="B3422" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3423" s="2">
         <v>45434.542314814818</v>
       </c>
-      <c r="B3423" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3424" s="2">
         <v>45434.583981481483</v>
       </c>
-      <c r="B3424" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3425" s="2">
         <v>45434.625648148147</v>
       </c>
-      <c r="B3425" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3426" s="2">
@@ -31299,337 +31231,211 @@
       <c r="A3862" s="2">
         <v>45452.833981481483</v>
       </c>
-      <c r="B3862" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3863" s="2">
         <v>45452.875648148147</v>
       </c>
-      <c r="B3863" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3864" s="2">
         <v>45452.917314814818</v>
       </c>
-      <c r="B3864" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3865" s="2">
         <v>45452.958981481483</v>
       </c>
-      <c r="B3865" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3866" s="2">
         <v>45453.000648148147</v>
       </c>
-      <c r="B3866" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3867" s="2">
         <v>45453.042314814818</v>
       </c>
-      <c r="B3867" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3868" s="2">
         <v>45453.083981481483</v>
       </c>
-      <c r="B3868" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3869" s="2">
         <v>45453.125648148147</v>
       </c>
-      <c r="B3869" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3870" s="2">
         <v>45453.167314814818</v>
       </c>
-      <c r="B3870" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3871" s="2">
         <v>45453.208981481483</v>
       </c>
-      <c r="B3871" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3872" s="2">
         <v>45453.250648148147</v>
       </c>
-      <c r="B3872" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3873" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3873" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3873" s="2">
         <v>45453.292314814818</v>
       </c>
-      <c r="B3873" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3874" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3874" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3874" s="2">
         <v>45453.333981481483</v>
       </c>
-      <c r="B3874" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3875" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3875" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3875" s="2">
         <v>45453.375648148147</v>
       </c>
-      <c r="B3875" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3876" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3876" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3876" s="2">
         <v>45453.417314814818</v>
       </c>
-      <c r="B3876" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3877" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3877" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3877" s="2">
         <v>45453.458981481483</v>
       </c>
-      <c r="B3877" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3878" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3878" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3878" s="2">
         <v>45453.500648148147</v>
       </c>
-      <c r="B3878" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3879" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3879" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3879" s="2">
         <v>45453.542314814818</v>
       </c>
-      <c r="B3879" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3880" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3880" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3880" s="2">
         <v>45453.583981481483</v>
       </c>
-      <c r="B3880" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3881" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3881" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3881" s="2">
         <v>45453.625648148147</v>
       </c>
-      <c r="B3881" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3882" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3882" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3882" s="2">
         <v>45453.667314814818</v>
       </c>
-      <c r="B3882" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3883" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3883" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3883" s="2">
         <v>45453.708981481483</v>
       </c>
-      <c r="B3883" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3884" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3884" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3884" s="2">
         <v>45453.750648148147</v>
       </c>
-      <c r="B3884" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3885" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3885" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3885" s="2">
         <v>45453.792314814818</v>
       </c>
-      <c r="B3885" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3886" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3886" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3886" s="2">
         <v>45453.833981481483</v>
       </c>
-      <c r="B3886" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3887" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3887" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3887" s="2">
         <v>45453.875648148147</v>
       </c>
-      <c r="B3887" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3888" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3888" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3888" s="2">
         <v>45453.917314814818</v>
-      </c>
-      <c r="B3888" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3889" s="2">
         <v>45453.958981481483</v>
       </c>
-      <c r="B3889" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3890" s="2">
         <v>45454.000648148147</v>
       </c>
-      <c r="B3890" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3891" s="2">
         <v>45454.042314814818</v>
       </c>
-      <c r="B3891" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3892" s="2">
         <v>45454.083981481483</v>
       </c>
-      <c r="B3892" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3893" s="2">
         <v>45454.125648148147</v>
       </c>
-      <c r="B3893" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3894" s="2">
         <v>45454.167314814818</v>
       </c>
-      <c r="B3894" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3895" s="2">
         <v>45454.208981481483</v>
       </c>
-      <c r="B3895" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3896" s="2">
         <v>45454.250648148147</v>
       </c>
-      <c r="B3896" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3897" s="2">
         <v>45454.292314814818</v>
       </c>
-      <c r="B3897" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3898" s="2">
         <v>45454.333981481483</v>
       </c>
-      <c r="B3898" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3899" s="2">
         <v>45454.375648148147</v>
       </c>
-      <c r="B3899" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3900" s="2">
         <v>45454.417314814818</v>
       </c>
-      <c r="B3900" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3901" s="2">
         <v>45454.458981481483</v>
       </c>
-      <c r="B3901" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3902" s="2">
         <v>45454.500648148147</v>
       </c>
-      <c r="B3902" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3903" s="2">
         <v>45454.542314814818</v>
       </c>
-      <c r="B3903" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3904" s="2">
@@ -34515,25 +34321,16 @@
       <c r="A4264" s="2">
         <v>45469.583981481483</v>
       </c>
-      <c r="B4264" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4265" s="2">
         <v>45469.625648148147</v>
       </c>
-      <c r="B4265" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4266" s="2">
         <v>45469.667314814818</v>
       </c>
-      <c r="B4266" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4267" s="2">
@@ -37003,9 +36800,6 @@
       <c r="A4575" s="2">
         <v>45482.542314814818</v>
       </c>
-      <c r="B4575" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4576" s="2">
@@ -38395,9 +38189,6 @@
       <c r="A4749" s="2">
         <v>45489.792314814818</v>
       </c>
-      <c r="B4749" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4750" s="2">
@@ -38739,1561 +38530,976 @@
       <c r="A4792" s="2">
         <v>45491.583981481483</v>
       </c>
-      <c r="B4792" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4793" s="2">
         <v>45491.625648148147</v>
       </c>
-      <c r="B4793" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4794" s="2">
         <v>45491.667314814818</v>
       </c>
-      <c r="B4794" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4795" s="2">
         <v>45491.708981481483</v>
       </c>
-      <c r="B4795" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4796" s="2">
         <v>45491.750648148147</v>
       </c>
-      <c r="B4796" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4797" s="2">
         <v>45491.792314814818</v>
       </c>
-      <c r="B4797" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4798" s="2">
         <v>45491.833981481483</v>
       </c>
-      <c r="B4798" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4799" s="2">
         <v>45491.875648148147</v>
       </c>
-      <c r="B4799" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4800" s="2">
         <v>45491.917314814818</v>
       </c>
-      <c r="B4800" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4801" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4801" s="2">
         <v>45491.958981481483</v>
       </c>
-      <c r="B4801" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4802" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4802" s="2">
         <v>45492.000648148147</v>
       </c>
-      <c r="B4802" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4803" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4803" s="2">
         <v>45492.042314814818</v>
       </c>
-      <c r="B4803" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4804" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4804" s="2">
         <v>45492.083981481483</v>
       </c>
-      <c r="B4804" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4805" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4805" s="2">
         <v>45492.125648148147</v>
       </c>
-      <c r="B4805" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4806" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4806" s="2">
         <v>45492.167314814818</v>
       </c>
-      <c r="B4806" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4807" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4807" s="2">
         <v>45492.208981481483</v>
       </c>
-      <c r="B4807" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4808" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4808" s="2">
         <v>45492.250648148147</v>
       </c>
-      <c r="B4808" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4809" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4809" s="2">
         <v>45492.292314814818</v>
       </c>
-      <c r="B4809" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4810" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4810" s="2">
         <v>45492.333981481483</v>
       </c>
-      <c r="B4810" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4811" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4811" s="2">
         <v>45492.375648148147</v>
       </c>
-      <c r="B4811" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4812" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4812" s="2">
         <v>45492.417314814818</v>
       </c>
-      <c r="B4812" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4813" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4813" s="2">
         <v>45492.458981481483</v>
       </c>
-      <c r="B4813" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4814" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4814" s="2">
         <v>45492.500648148147</v>
       </c>
-      <c r="B4814" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4815" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4815" s="2">
         <v>45492.542314814818</v>
       </c>
-      <c r="B4815" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4816" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4816" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4816" s="2">
         <v>45492.583981481483</v>
       </c>
-      <c r="B4816" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4817" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4817" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4817" s="2">
         <v>45492.625648148147</v>
       </c>
-      <c r="B4817" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4818" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4818" s="2">
         <v>45492.667314814818</v>
       </c>
-      <c r="B4818" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4819" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4819" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4819" s="2">
         <v>45492.708981481483</v>
       </c>
-      <c r="B4819" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4820" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4820" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4820" s="2">
         <v>45492.750648148147</v>
       </c>
-      <c r="B4820" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4821" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4821" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4821" s="2">
         <v>45492.792314814818</v>
       </c>
-      <c r="B4821" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4822" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4822" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4822" s="2">
         <v>45492.833981481483</v>
       </c>
-      <c r="B4822" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4823" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4823" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4823" s="2">
         <v>45492.875648148147</v>
       </c>
-      <c r="B4823" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4824" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4824" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4824" s="2">
         <v>45492.917314814818</v>
       </c>
-      <c r="B4824" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4825" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4825" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4825" s="2">
         <v>45492.958981481483</v>
       </c>
-      <c r="B4825" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4826" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4826" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4826" s="2">
         <v>45493.000648148147</v>
       </c>
-      <c r="B4826" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4827" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4827" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4827" s="2">
         <v>45493.042314814818</v>
       </c>
-      <c r="B4827" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4828" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4828" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4828" s="2">
         <v>45493.083981481483</v>
       </c>
-      <c r="B4828" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4829" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4829" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4829" s="2">
         <v>45493.125648148147</v>
       </c>
-      <c r="B4829" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4830" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4830" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4830" s="2">
         <v>45493.167314814818</v>
       </c>
-      <c r="B4830" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4831" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4831" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4831" s="2">
         <v>45493.208981481483</v>
       </c>
-      <c r="B4831" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4832" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4832" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4832" s="2">
         <v>45493.250648148147</v>
       </c>
-      <c r="B4832" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4833" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4833" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4833" s="2">
         <v>45493.292314814818</v>
       </c>
-      <c r="B4833" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4834" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4834" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4834" s="2">
         <v>45493.333981481483</v>
       </c>
-      <c r="B4834" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4835" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4835" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4835" s="2">
         <v>45493.375648148147</v>
       </c>
-      <c r="B4835" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4836" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4836" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4836" s="2">
         <v>45493.417314814818</v>
       </c>
-      <c r="B4836" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4837" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4837" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4837" s="2">
         <v>45493.458981481483</v>
       </c>
-      <c r="B4837" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4838" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4838" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4838" s="2">
         <v>45493.500648148147</v>
       </c>
-      <c r="B4838" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4839" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4839" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4839" s="2">
         <v>45493.542314814818</v>
       </c>
-      <c r="B4839" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4840" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4840" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4840" s="2">
         <v>45493.583981481483</v>
       </c>
-      <c r="B4840" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4841" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4841" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4841" s="2">
         <v>45493.625648148147</v>
       </c>
-      <c r="B4841" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4842" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4842" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4842" s="2">
         <v>45493.667314814818</v>
       </c>
-      <c r="B4842" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4843" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4843" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4843" s="2">
         <v>45493.708981481483</v>
       </c>
-      <c r="B4843" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4844" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4844" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4844" s="2">
         <v>45493.750648148147</v>
       </c>
-      <c r="B4844" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4845" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4845" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4845" s="2">
         <v>45493.792314814818</v>
       </c>
-      <c r="B4845" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4846" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4846" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4846" s="2">
         <v>45493.833981481483</v>
       </c>
-      <c r="B4846" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4847" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4847" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4847" s="2">
         <v>45493.875648148147</v>
       </c>
-      <c r="B4847" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4848" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4848" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4848" s="2">
         <v>45493.917314814818</v>
       </c>
-      <c r="B4848" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4849" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4849" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4849" s="2">
         <v>45493.958981481483</v>
       </c>
-      <c r="B4849" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4850" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4850" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4850" s="2">
         <v>45494.000648148147</v>
       </c>
-      <c r="B4850" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4851" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4851" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4851" s="2">
         <v>45494.042314814818</v>
       </c>
-      <c r="B4851" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4852" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4852" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4852" s="2">
         <v>45494.083981481483</v>
       </c>
-      <c r="B4852" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4853" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4853" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4853" s="2">
         <v>45494.125648148147</v>
       </c>
-      <c r="B4853" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4854" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4854" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4854" s="2">
         <v>45494.167314814818</v>
       </c>
-      <c r="B4854" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4855" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4855" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4855" s="2">
         <v>45494.208981481483</v>
       </c>
-      <c r="B4855" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4856" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4856" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4856" s="2">
         <v>45494.250648148147</v>
       </c>
-      <c r="B4856" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4857" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4857" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4857" s="2">
         <v>45494.292314814818</v>
       </c>
-      <c r="B4857" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4858" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4858" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4858" s="2">
         <v>45494.333981481483</v>
       </c>
-      <c r="B4858" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4859" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4859" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4859" s="2">
         <v>45494.375648148147</v>
       </c>
-      <c r="B4859" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4860" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4860" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4860" s="2">
         <v>45494.417314814818</v>
       </c>
-      <c r="B4860" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4861" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4861" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4861" s="2">
         <v>45494.458981481483</v>
       </c>
-      <c r="B4861" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4862" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4862" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4862" s="2">
         <v>45494.500648148147</v>
       </c>
-      <c r="B4862" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4863" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4863" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4863" s="2">
         <v>45494.542314814818</v>
       </c>
-      <c r="B4863" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4864" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4864" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4864" s="2">
         <v>45494.583981481483</v>
       </c>
-      <c r="B4864" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4865" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4865" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4865" s="2">
         <v>45494.625648148147</v>
       </c>
-      <c r="B4865" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4866" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4866" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4866" s="2">
         <v>45494.667314814818</v>
       </c>
-      <c r="B4866" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4867" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4867" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4867" s="2">
         <v>45494.708981481483</v>
       </c>
-      <c r="B4867" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4868" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4868" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4868" s="2">
         <v>45494.750648148147</v>
       </c>
-      <c r="B4868" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4869" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4869" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4869" s="2">
         <v>45494.792314814818</v>
       </c>
-      <c r="B4869" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4870" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4870" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4870" s="2">
         <v>45494.833981481483</v>
       </c>
-      <c r="B4870" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4871" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4871" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4871" s="2">
         <v>45494.875648148147</v>
       </c>
-      <c r="B4871" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4872" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4872" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4872" s="2">
         <v>45494.917314814818</v>
       </c>
-      <c r="B4872" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4873" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4873" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4873" s="2">
         <v>45494.958981481483</v>
       </c>
-      <c r="B4873" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4874" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4874" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4874" s="2">
         <v>45495.000648148147</v>
       </c>
-      <c r="B4874" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4875" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4875" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4875" s="2">
         <v>45495.042314814818</v>
       </c>
-      <c r="B4875" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4876" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4876" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4876" s="2">
         <v>45495.083981481483</v>
       </c>
-      <c r="B4876" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4877" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4877" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4877" s="2">
         <v>45495.125648148147</v>
       </c>
-      <c r="B4877" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4878" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4878" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4878" s="2">
         <v>45495.167314814818</v>
       </c>
-      <c r="B4878" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4879" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4879" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4879" s="2">
         <v>45495.208981481483</v>
       </c>
-      <c r="B4879" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4880" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4880" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4880" s="2">
         <v>45495.250648148147</v>
       </c>
-      <c r="B4880" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4881" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4881" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4881" s="2">
         <v>45495.292314814818</v>
       </c>
-      <c r="B4881" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4882" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4882" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4882" s="2">
         <v>45495.333981481483</v>
       </c>
-      <c r="B4882" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4883" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4883" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4883" s="2">
         <v>45495.375648148147</v>
       </c>
-      <c r="B4883" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4884" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4884" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4884" s="2">
         <v>45495.417314814818</v>
       </c>
-      <c r="B4884" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4885" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4885" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4885" s="2">
         <v>45495.458981481483</v>
       </c>
-      <c r="B4885" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4886" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4886" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4886" s="2">
         <v>45495.500648148147</v>
       </c>
-      <c r="B4886" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4887" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4887" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4887" s="2">
         <v>45495.542314814818</v>
       </c>
-      <c r="B4887" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4888" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4888" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4888" s="2">
         <v>45495.583981481483</v>
       </c>
-      <c r="B4888" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4889" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4889" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4889" s="2">
         <v>45495.625648148147</v>
       </c>
-      <c r="B4889" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4890" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4890" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4890" s="2">
         <v>45495.667314814818</v>
       </c>
-      <c r="B4890" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4891" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4891" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4891" s="2">
         <v>45495.708981481483</v>
       </c>
-      <c r="B4891" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4892" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4892" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4892" s="2">
         <v>45495.750648148147</v>
       </c>
-      <c r="B4892" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4893" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4893" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4893" s="2">
         <v>45495.792314814818</v>
       </c>
-      <c r="B4893" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4894" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4894" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4894" s="2">
         <v>45495.833981481483</v>
       </c>
-      <c r="B4894" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4895" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4895" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4895" s="2">
         <v>45495.875648148147</v>
       </c>
-      <c r="B4895" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4896" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4896" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4896" s="2">
         <v>45495.917314814818</v>
       </c>
-      <c r="B4896" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4897" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4897" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4897" s="2">
         <v>45495.958981481483</v>
       </c>
-      <c r="B4897" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4898" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4898" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4898" s="2">
         <v>45496.000648148147</v>
       </c>
-      <c r="B4898" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4899" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4899" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4899" s="2">
         <v>45496.042314814818</v>
       </c>
-      <c r="B4899" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4900" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4900" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4900" s="2">
         <v>45496.083981481483</v>
       </c>
-      <c r="B4900" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4901" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4901" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4901" s="2">
         <v>45496.125648148147</v>
       </c>
-      <c r="B4901" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4902" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4902" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4902" s="2">
         <v>45496.167314814818</v>
       </c>
-      <c r="B4902" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4903" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4903" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4903" s="2">
         <v>45496.208981481483</v>
       </c>
-      <c r="B4903" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4904" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4904" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4904" s="2">
         <v>45496.250648148147</v>
       </c>
-      <c r="B4904" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4905" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4905" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4905" s="2">
         <v>45496.292314814818</v>
       </c>
-      <c r="B4905" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4906" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4906" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4906" s="2">
         <v>45496.333981481483</v>
       </c>
-      <c r="B4906" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4907" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4907" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4907" s="2">
         <v>45496.375648148147</v>
       </c>
-      <c r="B4907" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4908" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4908" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4908" s="2">
         <v>45496.417314814818</v>
       </c>
-      <c r="B4908" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4909" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4909" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4909" s="2">
         <v>45496.458981481483</v>
       </c>
-      <c r="B4909" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4910" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4910" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4910" s="2">
         <v>45496.500648148147</v>
       </c>
-      <c r="B4910" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4911" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4911" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4911" s="2">
         <v>45496.542314814818</v>
       </c>
-      <c r="B4911" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4912" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4912" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4912" s="2">
         <v>45496.583981481483</v>
       </c>
-      <c r="B4912" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4913" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4913" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4913" s="2">
         <v>45496.625648148147</v>
       </c>
-      <c r="B4913" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4914" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4914" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4914" s="2">
         <v>45496.667314814818</v>
       </c>
-      <c r="B4914" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4915" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4915" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4915" s="2">
         <v>45496.708981481483</v>
       </c>
-      <c r="B4915" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4916" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4916" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4916" s="2">
         <v>45496.750648148147</v>
       </c>
-      <c r="B4916" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4917" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4917" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4917" s="2">
         <v>45496.792314814818</v>
       </c>
-      <c r="B4917" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4918" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4918" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4918" s="2">
         <v>45496.833981481483</v>
       </c>
-      <c r="B4918" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4919" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4919" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4919" s="2">
         <v>45496.875648148147</v>
       </c>
-      <c r="B4919" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4920" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4920" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4920" s="2">
         <v>45496.917314814818</v>
       </c>
-      <c r="B4920" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4921" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4921" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4921" s="2">
         <v>45496.958981481483</v>
       </c>
-      <c r="B4921" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4922" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4922" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4922" s="2">
         <v>45497.000648148147</v>
       </c>
-      <c r="B4922" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4923" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4923" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4923" s="2">
         <v>45497.042314814818</v>
       </c>
-      <c r="B4923" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4924" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4924" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4924" s="2">
         <v>45497.083981481483</v>
       </c>
-      <c r="B4924" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4925" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4925" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4925" s="2">
         <v>45497.125648148147</v>
       </c>
-      <c r="B4925" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4926" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4926" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4926" s="2">
         <v>45497.167314814818</v>
       </c>
-      <c r="B4926" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4927" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4927" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4927" s="2">
         <v>45497.208981481483</v>
       </c>
-      <c r="B4927" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4928" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4928" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4928" s="2">
         <v>45497.250648148147</v>
       </c>
-      <c r="B4928" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4929" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4929" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4929" s="2">
         <v>45497.292314814818</v>
       </c>
-      <c r="B4929" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4930" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4930" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4930" s="2">
         <v>45497.333981481483</v>
       </c>
-      <c r="B4930" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4931" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4931" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4931" s="2">
         <v>45497.375648148147</v>
       </c>
-      <c r="B4931" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4932" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4932" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4932" s="2">
         <v>45497.417314814818</v>
       </c>
-      <c r="B4932" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4933" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4933" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4933" s="2">
         <v>45497.458981481483</v>
       </c>
-      <c r="B4933" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4934" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4934" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4934" s="2">
         <v>45497.500648148147</v>
       </c>
-      <c r="B4934" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4935" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4935" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4935" s="2">
         <v>45497.542314814818</v>
       </c>
-      <c r="B4935" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4936" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4936" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4936" s="2">
         <v>45497.583981481483</v>
       </c>
-      <c r="B4936" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4937" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4937" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4937" s="2">
         <v>45497.625648148147</v>
       </c>
-      <c r="B4937" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4938" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4938" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4938" s="2">
         <v>45497.667314814818</v>
       </c>
-      <c r="B4938" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4939" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4939" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4939" s="2">
         <v>45497.708981481483</v>
       </c>
-      <c r="B4939" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4940" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4940" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4940" s="2">
         <v>45497.750648148147</v>
       </c>
-      <c r="B4940" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4941" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4941" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4941" s="2">
         <v>45497.792314814818</v>
       </c>
-      <c r="B4941" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4942" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4942" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4942" s="2">
         <v>45497.833981481483</v>
       </c>
-      <c r="B4942" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4943" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4943" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4943" s="2">
         <v>45497.875648148147</v>
       </c>
-      <c r="B4943" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4944" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4944" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4944" s="2">
         <v>45497.917314814818</v>
       </c>
-      <c r="B4944" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4945" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4945" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4945" s="2">
         <v>45497.958981481483</v>
       </c>
-      <c r="B4945" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4946" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4946" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4946" s="2">
         <v>45498.000648148147</v>
       </c>
-      <c r="B4946" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4947" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4947" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4947" s="2">
         <v>45498.042314814818</v>
       </c>
-      <c r="B4947" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4948" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4948" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4948" s="2">
         <v>45498.083981481483</v>
       </c>
-      <c r="B4948" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4949" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4949" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4949" s="2">
         <v>45498.125648148147</v>
       </c>
-      <c r="B4949" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4950" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4950" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4950" s="2">
         <v>45498.167314814818</v>
       </c>
-      <c r="B4950" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4951" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4951" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4951" s="2">
         <v>45498.208981481483</v>
       </c>
-      <c r="B4951" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4952" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4952" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4952" s="2">
         <v>45498.250648148147</v>
       </c>
-      <c r="B4952" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4953" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4953" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4953" s="2">
         <v>45498.292314814818</v>
       </c>
-      <c r="B4953" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4954" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4954" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4954" s="2">
         <v>45498.333981481483</v>
       </c>
-      <c r="B4954" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4955" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4955" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4955" s="2">
         <v>45498.375648148147</v>
       </c>
-      <c r="B4955" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4956" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4956" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4956" s="2">
         <v>45498.417314814818</v>
       </c>
-      <c r="B4956" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4957" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4957" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4957" s="2">
         <v>45498.458981481483</v>
       </c>
-      <c r="B4957" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4958" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4958" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4958" s="2">
         <v>45498.500648148147</v>
       </c>
-      <c r="B4958" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4959" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4959" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4959" s="2">
         <v>45498.542314814818</v>
       </c>
-      <c r="B4959" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4960" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4960" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4960" s="2">
         <v>45498.583981481483</v>
       </c>
-      <c r="B4960" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4961" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4961" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4961" s="2">
         <v>45498.625648148147</v>
       </c>
-      <c r="B4961" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4962" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4962" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4962" s="2">
         <v>45498.667314814818</v>
       </c>
-      <c r="B4962" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4963" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4963" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4963" s="2">
         <v>45498.708981481483</v>
       </c>
-      <c r="B4963" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4964" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4964" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4964" s="2">
         <v>45498.750648148147</v>
       </c>
-      <c r="B4964" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4965" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4965" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4965" s="2">
         <v>45498.792314814818</v>
       </c>
-      <c r="B4965" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4966" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4966" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4966" s="2">
         <v>45498.833981481483</v>
       </c>
-      <c r="B4966" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4967" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4967" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4967" s="2">
         <v>45498.875648148147</v>
       </c>
-      <c r="B4967" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4968" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4968" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4968" s="2">
         <v>45498.917314814818</v>
       </c>
-      <c r="B4968" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4969" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4969" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4969" s="2">
         <v>45498.958981481483</v>
       </c>
-      <c r="B4969" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4970" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4970" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4970" s="2">
         <v>45499.000648148147</v>
       </c>
-      <c r="B4970" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4971" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4971" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4971" s="2">
         <v>45499.042314814818</v>
       </c>
-      <c r="B4971" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4972" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4972" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4972" s="2">
         <v>45499.083981481483</v>
       </c>
-      <c r="B4972" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4973" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4973" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4973" s="2">
         <v>45499.125648148147</v>
       </c>
-      <c r="B4973" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4974" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4974" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4974" s="2">
         <v>45499.167314814818</v>
       </c>
-      <c r="B4974" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4975" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4975" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4975" s="2">
         <v>45499.208981481483</v>
       </c>
-      <c r="B4975" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4976" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4976" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4976" s="2">
         <v>45499.250648148147</v>
-      </c>
-      <c r="B4976" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4977" s="2">
         <v>45499.292314814818</v>
       </c>
-      <c r="B4977" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4978" s="2">
         <v>45499.333981481483</v>
       </c>
-      <c r="B4978" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4979" s="2">
         <v>45499.375648148147</v>
       </c>
-      <c r="B4979" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4980" s="2">
         <v>45499.417314814818</v>
       </c>
-      <c r="B4980" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4981" s="2">
         <v>45499.458981481483</v>
       </c>
-      <c r="B4981" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4982" s="2">
         <v>45499.500648148147</v>
       </c>
-      <c r="B4982" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4983" s="2">
         <v>45499.542314814818</v>
       </c>
-      <c r="B4983" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4984" s="2">
         <v>45499.583981481483</v>
       </c>
-      <c r="B4984" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4985" s="2">
         <v>45499.625648148147</v>
       </c>
-      <c r="B4985" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4986" s="2">
         <v>45499.667314814818</v>
       </c>
-      <c r="B4986" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4987" s="2">
@@ -45291,25 +44497,16 @@
       <c r="A5611" s="2">
         <v>45525.708981481483</v>
       </c>
-      <c r="B5611" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="5612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5612" s="2">
         <v>45525.750648148147</v>
       </c>
-      <c r="B5612" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="5613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5613" s="2">
         <v>45525.792314814818</v>
       </c>
-      <c r="B5613" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="5614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5614" s="2">
@@ -53075,289 +52272,181 @@
       <c r="A6584" s="2">
         <v>45566.250648148147</v>
       </c>
-      <c r="B6584" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6585" s="2">
         <v>45566.292314814818</v>
       </c>
-      <c r="B6585" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6586" s="2">
         <v>45566.333981481483</v>
       </c>
-      <c r="B6586" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6587" s="2">
         <v>45566.375648148147</v>
       </c>
-      <c r="B6587" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6588" s="2">
         <v>45566.417314814818</v>
       </c>
-      <c r="B6588" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6589" s="2">
         <v>45566.458981481483</v>
       </c>
-      <c r="B6589" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6590" s="2">
         <v>45566.500648148147</v>
       </c>
-      <c r="B6590" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6591" s="2">
         <v>45566.542314814818</v>
       </c>
-      <c r="B6591" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6592" s="2">
         <v>45566.583981481483</v>
       </c>
-      <c r="B6592" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6593" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6593" s="2">
         <v>45566.625648148147</v>
       </c>
-      <c r="B6593" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6594" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6594" s="2">
         <v>45566.667314814818</v>
       </c>
-      <c r="B6594" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6595" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6595" s="2">
         <v>45566.708981481483</v>
       </c>
-      <c r="B6595" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6596" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6596" s="2">
         <v>45566.750648148147</v>
       </c>
-      <c r="B6596" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6597" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6597" s="2">
         <v>45566.792314814818</v>
       </c>
-      <c r="B6597" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6598" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6598" s="2">
         <v>45566.833981481483</v>
       </c>
-      <c r="B6598" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6599" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6599" s="2">
         <v>45566.875648148147</v>
       </c>
-      <c r="B6599" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6600" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6600" s="2">
         <v>45566.917314814818</v>
       </c>
-      <c r="B6600" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6601" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6601" s="2">
         <v>45566.958981481483</v>
       </c>
-      <c r="B6601" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6602" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6602" s="2">
         <v>45567.000648148147</v>
       </c>
-      <c r="B6602" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6603" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6603" s="2">
         <v>45567.042314814818</v>
       </c>
-      <c r="B6603" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6604" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6604" s="2">
         <v>45567.083981481483</v>
       </c>
-      <c r="B6604" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6605" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6605" s="2">
         <v>45567.125648148147</v>
       </c>
-      <c r="B6605" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6606" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6606" s="2">
         <v>45567.167314814818</v>
       </c>
-      <c r="B6606" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6607" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6607" s="2">
         <v>45567.208981481483</v>
       </c>
-      <c r="B6607" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6608" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6608" s="2">
         <v>45567.250648148147</v>
-      </c>
-      <c r="B6608" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="6609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6609" s="2">
         <v>45567.292314814818</v>
       </c>
-      <c r="B6609" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6610" s="2">
         <v>45567.333981481483</v>
       </c>
-      <c r="B6610" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6611" s="2">
         <v>45567.375648148147</v>
       </c>
-      <c r="B6611" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6612" s="2">
         <v>45567.417314814818</v>
       </c>
-      <c r="B6612" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6613" s="2">
         <v>45567.458981481483</v>
       </c>
-      <c r="B6613" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6614" s="2">
         <v>45567.500648148147</v>
       </c>
-      <c r="B6614" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6615" s="2">
         <v>45567.542314814818</v>
       </c>
-      <c r="B6615" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6616" s="2">
         <v>45567.583981481483</v>
       </c>
-      <c r="B6616" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6617" s="2">
         <v>45567.625648148147</v>
       </c>
-      <c r="B6617" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6618" s="2">
         <v>45567.667314814818</v>
       </c>
-      <c r="B6618" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6619" s="2">
         <v>45567.708981481483</v>
       </c>
-      <c r="B6619" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6620" s="2">
@@ -53371,17 +52460,11 @@
       <c r="A6621" s="2">
         <v>45567.792314814818</v>
       </c>
-      <c r="B6621" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6622" s="2">
         <v>45567.833981481483</v>
       </c>
-      <c r="B6622" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6623" s="2">
@@ -57235,145 +56318,91 @@
       <c r="A7104" s="2">
         <v>45587.917314814818</v>
       </c>
-      <c r="B7104" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7105" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7105" s="2">
         <v>45587.958981481483</v>
       </c>
-      <c r="B7105" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7106" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7106" s="2">
         <v>45588.000648148147</v>
       </c>
-      <c r="B7106" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7107" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7107" s="2">
         <v>45588.042314814818</v>
       </c>
-      <c r="B7107" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7108" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7108" s="2">
         <v>45588.083981481483</v>
       </c>
-      <c r="B7108" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7109" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7109" s="2">
         <v>45588.125648148147</v>
       </c>
-      <c r="B7109" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7110" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7110" s="2">
         <v>45588.167314814818</v>
       </c>
-      <c r="B7110" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7111" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7111" s="2">
         <v>45588.208981481483</v>
       </c>
-      <c r="B7111" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7112" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7112" s="2">
         <v>45588.250648148147</v>
       </c>
-      <c r="B7112" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7113" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7113" s="2">
         <v>45588.292314814818</v>
       </c>
-      <c r="B7113" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7114" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7114" s="2">
         <v>45588.333981481483</v>
       </c>
-      <c r="B7114" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7115" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7115" s="2">
         <v>45588.375648148147</v>
       </c>
-      <c r="B7115" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7116" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7116" s="2">
         <v>45588.417314814818</v>
       </c>
-      <c r="B7116" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7117" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7117" s="2">
         <v>45588.458981481483</v>
       </c>
-      <c r="B7117" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7118" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7118" s="2">
         <v>45588.500648148147</v>
       </c>
-      <c r="B7118" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7119" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7119" s="2">
         <v>45588.542314814818</v>
       </c>
-      <c r="B7119" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7120" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7120" s="2">
         <v>45588.583981481483</v>
-      </c>
-      <c r="B7120" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="7121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7121" s="2">
         <v>45588.625648148147</v>
       </c>
-      <c r="B7121" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7122" s="2">
@@ -57395,25 +56424,16 @@
       <c r="A7124" s="2">
         <v>45588.750648148147</v>
       </c>
-      <c r="B7124" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7125" s="2">
         <v>45588.792314814818</v>
       </c>
-      <c r="B7125" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7126" s="2">
         <v>45588.833981481483</v>
       </c>
-      <c r="B7126" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7127" s="2">
@@ -64747,553 +63767,346 @@
       <c r="A8043" s="2">
         <v>45627.042314814818</v>
       </c>
-      <c r="B8043" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8044" s="2">
         <v>45627.083981481483</v>
       </c>
-      <c r="B8044" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8045" s="2">
         <v>45627.125648148147</v>
       </c>
-      <c r="B8045" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8046" s="2">
         <v>45627.167314814818</v>
       </c>
-      <c r="B8046" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8047" s="2">
         <v>45627.208981481483</v>
       </c>
-      <c r="B8047" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8048" s="2">
         <v>45627.250648148147</v>
       </c>
-      <c r="B8048" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8049" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8049" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8049" s="2">
         <v>45627.292314814818</v>
       </c>
-      <c r="B8049" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8050" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8050" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8050" s="2">
         <v>45627.333981481483</v>
       </c>
-      <c r="B8050" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8051" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8051" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8051" s="2">
         <v>45627.375648148147</v>
       </c>
-      <c r="B8051" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8052" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8052" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8052" s="2">
         <v>45627.417314814818</v>
       </c>
-      <c r="B8052" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8053" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8053" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8053" s="2">
         <v>45627.458981481483</v>
       </c>
-      <c r="B8053" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8054" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8054" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8054" s="2">
         <v>45627.500648148147</v>
       </c>
-      <c r="B8054" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8055" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8055" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8055" s="2">
         <v>45627.542314814818</v>
       </c>
-      <c r="B8055" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8056" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8056" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8056" s="2">
         <v>45627.583981481483</v>
       </c>
-      <c r="B8056" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8057" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8057" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8057" s="2">
         <v>45627.625648148147</v>
       </c>
-      <c r="B8057" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8058" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8058" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8058" s="2">
         <v>45627.667314814818</v>
       </c>
-      <c r="B8058" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8059" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8059" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8059" s="2">
         <v>45627.708981481483</v>
       </c>
-      <c r="B8059" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8060" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8060" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8060" s="2">
         <v>45627.750648148147</v>
       </c>
-      <c r="B8060" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8061" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8061" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8061" s="2">
         <v>45627.792314814818</v>
       </c>
-      <c r="B8061" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8062" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8062" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8062" s="2">
         <v>45627.833981481483</v>
       </c>
-      <c r="B8062" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8063" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8063" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8063" s="2">
         <v>45627.875648148147</v>
       </c>
-      <c r="B8063" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8064" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8064" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8064" s="2">
         <v>45627.917314814818</v>
       </c>
-      <c r="B8064" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8065" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8065" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8065" s="2">
         <v>45627.958981481483</v>
       </c>
-      <c r="B8065" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8066" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8066" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8066" s="2">
         <v>45628.000648148147</v>
       </c>
-      <c r="B8066" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8067" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8067" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8067" s="2">
         <v>45628.042314814818</v>
       </c>
-      <c r="B8067" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8068" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8068" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8068" s="2">
         <v>45628.083981481483</v>
       </c>
-      <c r="B8068" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8069" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8069" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8069" s="2">
         <v>45628.125648148147</v>
       </c>
-      <c r="B8069" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8070" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8070" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8070" s="2">
         <v>45628.167314814818</v>
       </c>
-      <c r="B8070" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8071" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8071" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8071" s="2">
         <v>45628.208981481483</v>
       </c>
-      <c r="B8071" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8072" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8072" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8072" s="2">
         <v>45628.250648148147</v>
       </c>
-      <c r="B8072" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8073" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8073" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8073" s="2">
         <v>45628.292314814818</v>
       </c>
-      <c r="B8073" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8074" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8074" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8074" s="2">
         <v>45628.333981481483</v>
       </c>
-      <c r="B8074" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8075" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8075" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8075" s="2">
         <v>45628.375648148147</v>
       </c>
-      <c r="B8075" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8076" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8076" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8076" s="2">
         <v>45628.417314814818</v>
       </c>
-      <c r="B8076" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8077" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8077" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8077" s="2">
         <v>45628.458981481483</v>
       </c>
-      <c r="B8077" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8078" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8078" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8078" s="2">
         <v>45628.500648148147</v>
       </c>
-      <c r="B8078" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8079" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8079" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8079" s="2">
         <v>45628.542314814818</v>
       </c>
-      <c r="B8079" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8080" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8080" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8080" s="2">
         <v>45628.583981481483</v>
       </c>
-      <c r="B8080" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8081" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8081" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8081" s="2">
         <v>45628.625648148147</v>
       </c>
-      <c r="B8081" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8082" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8082" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8082" s="2">
         <v>45628.667314814818</v>
       </c>
-      <c r="B8082" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8083" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8083" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8083" s="2">
         <v>45628.708981481483</v>
       </c>
-      <c r="B8083" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8084" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8084" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8084" s="2">
         <v>45628.750648148147</v>
       </c>
-      <c r="B8084" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8085" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8085" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8085" s="2">
         <v>45628.792314814818</v>
       </c>
-      <c r="B8085" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8086" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8086" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8086" s="2">
         <v>45628.833981481483</v>
       </c>
-      <c r="B8086" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8087" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8087" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8087" s="2">
         <v>45628.875648148147</v>
       </c>
-      <c r="B8087" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8088" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8088" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8088" s="2">
         <v>45628.917314814818</v>
       </c>
-      <c r="B8088" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8089" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8089" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8089" s="2">
         <v>45628.958981481483</v>
       </c>
-      <c r="B8089" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8090" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8090" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8090" s="2">
         <v>45629.000648148147</v>
       </c>
-      <c r="B8090" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8091" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8091" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8091" s="2">
         <v>45629.042314814818</v>
       </c>
-      <c r="B8091" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8092" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8092" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8092" s="2">
         <v>45629.083981481483</v>
       </c>
-      <c r="B8092" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8093" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8093" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8093" s="2">
         <v>45629.125648148147</v>
       </c>
-      <c r="B8093" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8094" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8094" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8094" s="2">
         <v>45629.167314814818</v>
       </c>
-      <c r="B8094" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8095" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8095" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8095" s="2">
         <v>45629.208981481483</v>
       </c>
-      <c r="B8095" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8096" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8096" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8096" s="2">
         <v>45629.250648148147</v>
-      </c>
-      <c r="B8096" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="8097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8097" s="2">
         <v>45629.292314814818</v>
       </c>
-      <c r="B8097" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8098" s="2">
         <v>45629.333981481483</v>
       </c>
-      <c r="B8098" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8099" s="2">
         <v>45629.375648148147</v>
       </c>
-      <c r="B8099" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8100" s="2">
         <v>45629.417314814818</v>
       </c>
-      <c r="B8100" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8101" s="2">
         <v>45629.458981481483</v>
       </c>
-      <c r="B8101" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8102" s="2">
         <v>45629.500648148147</v>
       </c>
-      <c r="B8102" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8103" s="2">
         <v>45629.542314814818</v>
       </c>
-      <c r="B8103" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8104" s="2">
         <v>45629.583981481483</v>
       </c>
-      <c r="B8104" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8105" s="2">
         <v>45629.625648148147</v>
       </c>
-      <c r="B8105" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8106" s="2">
         <v>45629.667314814818</v>
       </c>
-      <c r="B8106" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8107" s="2">
         <v>45629.708981481483</v>
       </c>
-      <c r="B8107" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8108" s="2">
         <v>45629.750648148147</v>
       </c>
-      <c r="B8108" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8109" s="2">
         <v>45629.792314814818</v>
       </c>
-      <c r="B8109" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8110" s="2">
         <v>45629.833981481483</v>
       </c>
-      <c r="B8110" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8111" s="2">
         <v>45629.875648148147</v>
       </c>
-      <c r="B8111" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8112" s="2">
@@ -68371,24 +67184,15 @@
       <c r="A8496" s="2">
         <v>45645.917314814818</v>
       </c>
-      <c r="B8496" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8497" s="2">
         <v>45645.958981481483</v>
       </c>
-      <c r="B8497" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8498" s="2">
         <v>45646.000648148147</v>
-      </c>
-      <c r="B8498" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="8499" spans="1:2" x14ac:dyDescent="0.2">
